--- a/bots/crawl_ch/output/electronics_2022-08-03.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-03.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -942,7 +942,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1015,50 +1015,48 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4905479</t>
+          <t>6999781</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
+          <t>24ST</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.24/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1068,7 +1066,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1078,58 +1076,60 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6999781</t>
+          <t>4905479</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-batterien-longlife-power-aaalr03-2x12-stueck/p/6999781</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/coop-alkaline-batterie-lr6aa-4-stk/p/4905479</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>24ST</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>7</v>
+      </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>1.24/1ST</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1149,39 +1149,39 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AAA/LR03 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Coop Alkaline Batterie, LR6/AA, 4 Stk. 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6762336</t>
+          <t>6999749</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8ST</t>
+          <t>24ST</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1190,17 +1190,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>0.87/1ST</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1220,39 +1220,39 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
+          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6999749</t>
+          <t>6762336</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-batterien-longlife-power-aalr6-2x12-stueck/p/6999749</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-optimum-aaalr03-8-stueck/p/6762336</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24ST</t>
+          <t>8ST</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.87/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Varta Batterien Longlife Power AA/LR6 2x12 Stück 50% Aktion 20.85 Schweizer Franken statt 41.70 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AAA/LR03 8 Stück 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1374,7 +1374,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1808,7 +1808,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2025,29 +2025,29 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,39 +2086,39 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2157,17 +2157,17 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2238,7 +2238,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2453,7 +2453,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2526,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2599,7 +2599,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2891,7 +2891,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3015,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3462,29 +3462,29 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3494063</t>
+          <t>6986541</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli</t>
+          <t>Duracell Batterie (CR2032, 4 Stück)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3493,17 +3493,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.98/1ST</t>
+          <t>2.24/1ST</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3528,97 +3528,117 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
+          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>3494063</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>Varta Longlife Power C 2er Bli</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-c-2er-bli/p/3494063</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>3.98/1ST</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
+          <t>Varta Longlife Power C 2er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6298048</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Electrolux</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -3627,34 +3647,34 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3662,16 +3682,16 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>49.95</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -3685,29 +3705,29 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 50% Aktion 49.95 Schweizer Franken statt 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4942594</t>
+          <t>6298048</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz</t>
+          <t>Electrolux E201S Classic Staubbeutel</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/electrolux-e201s-classic-staubbeutel/p/6298048</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3717,12 +3737,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Skross</t>
+          <t>Electrolux</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3736,12 +3756,12 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
+          <t>Electrolux E201S Classic Staubbeutel 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3814,24 +3834,24 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4145012</t>
+          <t>4942594</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück</t>
+          <t>Skross Adapter World-Schweiz</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/skross-adapter-world-schweiz/p/4942594</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3841,12 +3861,12 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Skross</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>19.95</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -3855,48 +3875,44 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
+          <t>Skross Adapter World-Schweiz 19.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6986541</t>
+          <t>4145012</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück)</t>
+          <t>LED Teelichter warmweiss 4 Stück</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-cr2032-4-stueck/p/6986541</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/beleuchtung/taschenlampen-lichter/led-teelichter-warmweiss-4-stueck/p/4145012</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -3904,39 +3920,23 @@
           <t>8.95</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'beleuchtung', 'taschenlampen-lichter']</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Duracell Batterie (CR2032, 4 Stück) 43% Aktion 8.95 Schweizer Franken statt 15.90 Schweizer Franken</t>
+          <t>LED Teelichter warmweiss 4 Stück 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -3989,7 +3989,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4040,100 +4040,80 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3494231</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>4.95/1ST</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>3494231</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Varta Electronics CR2025 1er Bli</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2025-1er-bli/p/3494231</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -4147,12 +4127,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.48/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4162,7 +4142,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4177,63 +4157,83 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2025 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2ST</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>4.48/1ST</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4306,7 +4306,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4408,7 +4408,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4583,7 +4583,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4707,7 +4707,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5046,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5576,7 +5576,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -5600,7 +5600,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -5959,7 +5959,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6063,7 +6063,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6205,7 +6205,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-08-03 07:01:13</t>
+          <t>2022-08-03 21:00:01</t>
         </is>
       </c>
     </row>
